--- a/excel_result/new_costs.xlsx
+++ b/excel_result/new_costs.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,27 +35,48 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="9"/>
     </font>
     <font>
+      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
     <font>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
+      <color rgb="00000000"/>
       <sz val="15"/>
+    </font>
+    <font>
+      <color rgb="00f63738"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00f63738"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="5">
@@ -84,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,11 +119,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -143,7 +213,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:W46"/>
+  <dimension ref="A2:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1188,6 +1279,126 @@
       </c>
       <c r="N34" s="4" t="n"/>
     </row>
+    <row r="35">
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 공구손료</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>직접노무비(노임할증,품할증,토목,건축,기계,시험 공량분 제외) x 3%</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="n"/>
+      <c r="G35" s="4" t="n"/>
+      <c r="H35" s="4" t="n"/>
+      <c r="I35" s="4" t="n"/>
+      <c r="J35" s="4" t="n"/>
+      <c r="K35" s="4" t="n"/>
+      <c r="L35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="I36" s="14" t="inlineStr">
+        <is>
+          <t>77,884</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="n"/>
+      <c r="K36" s="4" t="n"/>
+      <c r="L36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 산재보험료</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="15" t="inlineStr">
+        <is>
+          <t>노무비 * 3.763%</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="4" t="n"/>
+      <c r="H37" s="4" t="n"/>
+      <c r="I37" s="4" t="n"/>
+      <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="I38" s="14" t="inlineStr">
+        <is>
+          <t>110,393</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 고용보험료</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="15" t="inlineStr">
+        <is>
+          <t>노무비 * 1.01%</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="I40" s="14" t="inlineStr">
+        <is>
+          <t>29,630</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 기타경비</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="15" t="inlineStr">
+        <is>
+          <t>(도급재료비 + 노무비) * 4.6%</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="I42" s="14" t="inlineStr">
+        <is>
+          <t>161,585</t>
+        </is>
+      </c>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+    </row>
     <row r="44">
       <c r="A44" s="10" t="inlineStr">
         <is>
@@ -1216,6 +1427,16 @@
       </c>
       <c r="N44" s="4" t="n"/>
     </row>
+    <row r="45">
+      <c r="I45" s="14" t="inlineStr">
+        <is>
+          <t>233,533</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+    </row>
     <row r="46">
       <c r="A46" s="10" t="inlineStr">
         <is>
@@ -1243,111 +1464,312 @@
         </is>
       </c>
       <c r="N46" s="4" t="n"/>
-      <c r="O46" s="15" t="inlineStr">
+      <c r="O46" s="16" t="inlineStr">
         <is>
           <t>일반공사</t>
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="I47" s="14" t="inlineStr">
+        <is>
+          <t>532,000</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="E49" s="10" t="inlineStr">
+        <is>
+          <t>(노무비 + 도급경비 + 일반관리비) * 10%</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="11" t="inlineStr">
+        <is>
+          <t>354,667</t>
+        </is>
+      </c>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="16" t="inlineStr">
+        <is>
+          <t>간이공사</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" s="14" t="inlineStr">
+        <is>
+          <t>354,667</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="I51" s="17" t="inlineStr">
+        <is>
+          <t>(₩745)</t>
+        </is>
+      </c>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="O51" s="12" t="inlineStr">
+        <is>
+          <t>일반공사</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="I52" s="17" t="inlineStr">
+        <is>
+          <t>(₩412)</t>
+        </is>
+      </c>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="O52" s="18" t="inlineStr">
+        <is>
+          <t>간이공사</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" s="19" t="inlineStr">
+        <is>
+          <t>추 정 금 액</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="20" t="inlineStr">
+        <is>
+          <t>₩4,928,000</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="E54" s="19" t="inlineStr">
+        <is>
+          <t>도 급 분(일반공사 - 이윤 15%)</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="20" t="inlineStr">
+        <is>
+          <t>₩4,658,000</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>도 급 분(간이공사 - 이윤 10%)</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="22" t="inlineStr">
+        <is>
+          <t>₩4,658,000</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="E56" s="19" t="inlineStr">
+        <is>
+          <t>도급부가세</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="20" t="inlineStr">
+        <is>
+          <t>₩448,000</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="144">
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="E35:L35"/>
     <mergeCell ref="E44:L44"/>
     <mergeCell ref="S7:T7"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="K50:L50"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="P5:R5"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="E46:L46"/>
+    <mergeCell ref="O49"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="P4:R4"/>
+    <mergeCell ref="I36:K36"/>
     <mergeCell ref="S5:T5"/>
+    <mergeCell ref="I45:K45"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
+    <mergeCell ref="I47:K47"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="O52"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K53:N53"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="O14"/>
+    <mergeCell ref="K51:L51"/>
     <mergeCell ref="W4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="I51:K51"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E49:L49"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="K56:N56"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E37:L37"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O51"/>
     <mergeCell ref="O11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K45:L45"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="K54:N54"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="A10:O10"/>
+    <mergeCell ref="K55:N55"/>
     <mergeCell ref="S6:T6"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="I40:K40"/>
     <mergeCell ref="E8:O9"/>
+    <mergeCell ref="E55:J55"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I50:J50"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="P8:W9"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="W11"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="P10:W10"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="E39:L39"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="H14"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I42:K42"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
+    <mergeCell ref="E54:J54"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="E56:J56"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="W5:W7"/>
     <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="O22"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="E41:L41"/>
     <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="H11"/>
     <mergeCell ref="U5:V7"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="O46"/>
     <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I40:J40"/>
     <mergeCell ref="H22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_result/new_costs.xlsx
+++ b/excel_result/new_costs.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="간이공사산출명세서" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Comment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="간이공사산출명세서" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,10 +62,6 @@
       <sz val="12"/>
     </font>
     <font>
-      <color rgb="00000000"/>
-      <sz val="15"/>
-    </font>
-    <font>
       <color rgb="00f63738"/>
       <sz val="12"/>
     </font>
@@ -77,6 +74,19 @@
       <b val="1"/>
       <color rgb="00f63738"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="5">
@@ -172,8 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -206,7 +220,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -218,22 +232,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,6 +615,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A2:W8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>comment.
+please check .</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -610,90 +667,90 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>간이공사비 산출명세서</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>o 공사명 : 보호계전기 데이터 취득시스템(PDAS) 포인트 증설공사</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>구      분</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>재료비</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>노무비</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>경 비</t>
         </is>
       </c>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>일반관리비</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n"/>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>이 윤</t>
         </is>
       </c>
-      <c r="M4" s="4" t="n"/>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="M4" s="6" t="n"/>
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>소  계</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>부가세</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="Q4" s="6" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
       </c>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="T4" s="6" t="n"/>
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>작성자</t>
         </is>
       </c>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="3" t="inlineStr">
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>검토자</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>설
 계
@@ -702,70 +759,70 @@
 비</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>회사분</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="7" t="inlineStr">
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M5" s="4" t="n"/>
-      <c r="N5" s="7" t="inlineStr">
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n"/>
-      <c r="P5" s="7" t="inlineStr">
+      <c r="O5" s="6" t="n"/>
+      <c r="P5" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="7" t="inlineStr">
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T5" s="4" t="n"/>
-      <c r="U5" s="8" t="inlineStr">
+      <c r="T5" s="6" t="n"/>
+      <c r="U5" s="10" t="inlineStr">
         <is>
           <t>팀 원 
 이현영
 (인)</t>
         </is>
       </c>
-      <c r="V5" s="4" t="n"/>
-      <c r="W5" s="8" t="inlineStr">
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="10" t="inlineStr">
         <is>
           <t>차 장 
 이현영
@@ -774,929 +831,1217 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>도급분</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O6" s="4" t="n"/>
-      <c r="P6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="4" t="n"/>
-      <c r="S6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
-      <c r="V6" s="4" t="n"/>
-      <c r="W6" s="4" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="9" t="n">
+        <v>234701.73</v>
+      </c>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="9" t="n">
+        <v>8123156</v>
+      </c>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="9" t="n">
+        <v>91453613</v>
+      </c>
+      <c r="I6" s="6" t="n"/>
+      <c r="J6" s="9" t="n">
+        <v>598868824</v>
+      </c>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="9" t="n">
+        <v>768524000</v>
+      </c>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="9" t="n">
+        <v>76852400</v>
+      </c>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="9" t="n">
+        <v>845376400</v>
+      </c>
+      <c r="T6" s="6" t="n"/>
+      <c r="U6" s="6" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>계</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="n"/>
-      <c r="P7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n"/>
-      <c r="R7" s="4" t="n"/>
-      <c r="S7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="n"/>
-      <c r="U7" s="4" t="n"/>
-      <c r="V7" s="4" t="n"/>
-      <c r="W7" s="4" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="9" t="n">
+        <v>234701.73</v>
+      </c>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="9" t="n">
+        <v>8123156</v>
+      </c>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="9" t="n">
+        <v>91453613</v>
+      </c>
+      <c r="I7" s="6" t="n"/>
+      <c r="J7" s="9" t="n">
+        <v>598868824</v>
+      </c>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="n"/>
+      <c r="N7" s="9" t="n">
+        <v>768524000</v>
+      </c>
+      <c r="O7" s="6" t="n"/>
+      <c r="P7" s="9" t="n">
+        <v>76852400</v>
+      </c>
+      <c r="Q7" s="6" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="9" t="n">
+        <v>845376400</v>
+      </c>
+      <c r="T7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>예정가격(결정권자)</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">                                         (원)  - 부가세 포함</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
-      <c r="O8" s="4" t="n"/>
-      <c r="P8" s="6" t="inlineStr">
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="6" t="n"/>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="6" t="n"/>
+      <c r="M8" s="6" t="n"/>
+      <c r="N8" s="6" t="n"/>
+      <c r="O8" s="6" t="n"/>
+      <c r="P8" s="8" t="inlineStr">
         <is>
           <t>부      장      이 영 성             (인)</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="n"/>
-      <c r="R8" s="4" t="n"/>
-      <c r="S8" s="4" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="U8" s="4" t="n"/>
-      <c r="V8" s="4" t="n"/>
-      <c r="W8" s="4" t="n"/>
+      <c r="Q8" s="6" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="6" t="n"/>
+      <c r="T8" s="6" t="n"/>
+      <c r="U8" s="6" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-      <c r="O9" s="4" t="n"/>
-      <c r="P9" s="4" t="n"/>
-      <c r="Q9" s="4" t="n"/>
-      <c r="R9" s="4" t="n"/>
-      <c r="S9" s="4" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="U9" s="4" t="n"/>
-      <c r="V9" s="4" t="n"/>
-      <c r="W9" s="4" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="6" t="n"/>
+      <c r="M9" s="6" t="n"/>
+      <c r="N9" s="6" t="n"/>
+      <c r="O9" s="6" t="n"/>
+      <c r="P9" s="6" t="n"/>
+      <c r="Q9" s="6" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="6" t="n"/>
+      <c r="T9" s="6" t="n"/>
+      <c r="U9" s="6" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>공   사   비   예   산   서</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="M10" s="4" t="n"/>
-      <c r="N10" s="4" t="n"/>
-      <c r="O10" s="4" t="n"/>
-      <c r="P10" s="9" t="inlineStr">
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="6" t="n"/>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="6" t="n"/>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="6" t="n"/>
+      <c r="M10" s="6" t="n"/>
+      <c r="N10" s="6" t="n"/>
+      <c r="O10" s="6" t="n"/>
+      <c r="P10" s="11" t="inlineStr">
         <is>
           <t>공 사 비 정 산 서</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="n"/>
-      <c r="R10" s="4" t="n"/>
-      <c r="S10" s="4" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="U10" s="4" t="n"/>
-      <c r="V10" s="4" t="n"/>
-      <c r="W10" s="4" t="n"/>
+      <c r="Q10" s="6" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="6" t="n"/>
+      <c r="T10" s="6" t="n"/>
+      <c r="U10" s="6" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>품 명</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>규격</t>
         </is>
       </c>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="11" t="inlineStr">
         <is>
           <t>단 위</t>
         </is>
       </c>
-      <c r="I11" s="9" t="inlineStr">
+      <c r="I11" s="11" t="inlineStr">
         <is>
           <t>수 량</t>
         </is>
       </c>
-      <c r="J11" s="4" t="n"/>
-      <c r="K11" s="9" t="inlineStr">
+      <c r="J11" s="6" t="n"/>
+      <c r="K11" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">단 가	</t>
         </is>
       </c>
-      <c r="L11" s="4" t="n"/>
-      <c r="M11" s="9" t="inlineStr">
+      <c r="L11" s="6" t="n"/>
+      <c r="M11" s="11" t="inlineStr">
         <is>
           <t>금   액</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n"/>
-      <c r="O11" s="9" t="inlineStr">
+      <c r="N11" s="6" t="n"/>
+      <c r="O11" s="11" t="inlineStr">
         <is>
           <t>비  고</t>
         </is>
       </c>
-      <c r="P11" s="9" t="inlineStr">
+      <c r="P11" s="11" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="n"/>
-      <c r="R11" s="9" t="inlineStr">
+      <c r="Q11" s="6" t="n"/>
+      <c r="R11" s="11" t="inlineStr">
         <is>
           <t>단 가</t>
         </is>
       </c>
-      <c r="S11" s="4" t="n"/>
-      <c r="T11" s="9" t="inlineStr">
+      <c r="S11" s="6" t="n"/>
+      <c r="T11" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">금  액	</t>
         </is>
       </c>
-      <c r="U11" s="4" t="n"/>
-      <c r="V11" s="4" t="n"/>
-      <c r="W11" s="9" t="inlineStr">
+      <c r="U11" s="6" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="11" t="inlineStr">
         <is>
           <t>증감</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>1. 재료비</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="M12" s="11" t="inlineStr">
-        <is>
-          <t>579,080</t>
-        </is>
-      </c>
-      <c r="N12" s="4" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="M12" s="13" t="n">
+        <v>234701.73</v>
+      </c>
+      <c r="N12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C13" s="12" t="inlineStr">
         <is>
           <t>도급분</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n"/>
-      <c r="M13" s="11" t="inlineStr">
-        <is>
-          <t>579,080</t>
-        </is>
-      </c>
-      <c r="N13" s="4" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="M13" s="13" t="n">
+        <v>234701.73</v>
+      </c>
+      <c r="N13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UTP케이블</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="12" t="inlineStr">
-        <is>
-          <t>UTP CAT.5E 4PR</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="13" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 꼬임 케이블 포설</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="14" t="inlineStr"/>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I14" s="14" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="14" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">200,880 	</t>
-        </is>
-      </c>
-      <c r="N14" s="4" t="n"/>
-      <c r="O14" s="14" t="inlineStr">
+      <c r="I14" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6" t="n"/>
+      <c r="K14" s="16" t="n">
+        <v>62241.6</v>
+      </c>
+      <c r="L14" s="6" t="n"/>
+      <c r="M14" s="16" t="n">
+        <v>311208</v>
+      </c>
+      <c r="N14" s="6" t="n"/>
+      <c r="O14" s="16" t="inlineStr">
         <is>
           <t>견적</t>
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 커넥터 및 Jack 접속</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="14" t="inlineStr"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6" t="n"/>
+      <c r="K15" s="16" t="n">
+        <v>130965.73</v>
+      </c>
+      <c r="L15" s="6" t="n"/>
+      <c r="M15" s="16" t="n">
+        <v>654829</v>
+      </c>
+      <c r="N15" s="6" t="n"/>
+      <c r="O15" s="16" t="inlineStr">
+        <is>
+          <t>견적</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제어 케이블</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="14" t="inlineStr"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="6" t="n"/>
+      <c r="K16" s="16" t="n">
+        <v>41494.4</v>
+      </c>
+      <c r="L16" s="6" t="n"/>
+      <c r="M16" s="16" t="n">
+        <v>207472</v>
+      </c>
+      <c r="N16" s="6" t="n"/>
+      <c r="O16" s="16" t="inlineStr">
+        <is>
+          <t>견적</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 꼬임 케이블 포설</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="14" t="inlineStr"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" s="6" t="n"/>
+      <c r="K17" s="16" t="n">
+        <v>62241.6</v>
+      </c>
+      <c r="L17" s="6" t="n"/>
+      <c r="M17" s="16" t="n">
+        <v>746899</v>
+      </c>
+      <c r="N17" s="6" t="n"/>
+      <c r="O17" s="16" t="inlineStr">
+        <is>
+          <t>견적</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 커넥터 및 Jack 접속</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="14" t="inlineStr"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I18" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" s="6" t="n"/>
+      <c r="K18" s="16" t="n">
+        <v>130965.73</v>
+      </c>
+      <c r="L18" s="6" t="n"/>
+      <c r="M18" s="16" t="n">
+        <v>523863</v>
+      </c>
+      <c r="N18" s="6" t="n"/>
+      <c r="O18" s="16" t="inlineStr">
+        <is>
+          <t>견적</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제어 케이블</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="14" t="inlineStr"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6" t="n"/>
+      <c r="K19" s="16" t="n">
+        <v>41494.4</v>
+      </c>
+      <c r="L19" s="6" t="n"/>
+      <c r="M19" s="16" t="n">
+        <v>207472</v>
+      </c>
+      <c r="N19" s="6" t="n"/>
+      <c r="O19" s="16" t="inlineStr">
+        <is>
+          <t>견적</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="12" t="inlineStr">
         <is>
           <t>2. 노무비</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="M20" s="11" t="inlineStr">
-        <is>
-          <t>2,933,640</t>
-        </is>
-      </c>
-      <c r="N20" s="4" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="M20" s="13" t="n">
+        <v>8123156</v>
+      </c>
+      <c r="N20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="C21" s="10" t="inlineStr">
+      <c r="C21" s="12" t="inlineStr">
         <is>
           <t>가. 직접노무비</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n"/>
-      <c r="M21" s="11" t="inlineStr">
-        <is>
-          <t>2,596,142</t>
-        </is>
-      </c>
-      <c r="N21" s="4" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="M21" s="13" t="n">
+        <v>5633536.4</v>
+      </c>
+      <c r="N21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  UTP케이블 포설</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="12" t="inlineStr">
-        <is>
-          <t>4P(1열)</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="13" t="inlineStr">
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 꼬임 케이블 포설</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="14" t="inlineStr"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I22" s="14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="14" t="inlineStr">
-        <is>
-          <t>5,473</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="n"/>
-      <c r="M22" s="14" t="inlineStr">
-        <is>
-          <t>32,838</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="n"/>
-      <c r="O22" s="14" t="inlineStr">
+      <c r="I22" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6" t="n"/>
+      <c r="K22" s="16" t="n">
+        <v>414944</v>
+      </c>
+      <c r="L22" s="6" t="n"/>
+      <c r="M22" s="16" t="n">
+        <v>2074720</v>
+      </c>
+      <c r="N22" s="6" t="n"/>
+      <c r="O22" s="16" t="inlineStr">
+        <is>
+          <t>품0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 커넥터 및 Jack 접속</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="14" t="inlineStr"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I23" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="6" t="n"/>
+      <c r="K23" s="16" t="n">
+        <v>267277</v>
+      </c>
+      <c r="L23" s="6" t="n"/>
+      <c r="M23" s="16" t="n">
+        <v>1336385</v>
+      </c>
+      <c r="N23" s="6" t="n"/>
+      <c r="O23" s="16" t="inlineStr">
         <is>
           <t>품1</t>
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제어 케이블</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="14" t="inlineStr"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" s="6" t="n"/>
+      <c r="K24" s="16" t="n">
+        <v>414944</v>
+      </c>
+      <c r="L24" s="6" t="n"/>
+      <c r="M24" s="16" t="n">
+        <v>2074720</v>
+      </c>
+      <c r="N24" s="6" t="n"/>
+      <c r="O24" s="16" t="inlineStr">
+        <is>
+          <t>품2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 꼬임 케이블 포설</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="14" t="inlineStr"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I25" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="16" t="n">
+        <v>414944</v>
+      </c>
+      <c r="L25" s="6" t="n"/>
+      <c r="M25" s="16" t="n">
+        <v>4979328</v>
+      </c>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="16" t="inlineStr">
+        <is>
+          <t>품3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 커넥터 및 Jack 접속</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="14" t="inlineStr"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I26" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="16" t="n">
+        <v>267277</v>
+      </c>
+      <c r="L26" s="6" t="n"/>
+      <c r="M26" s="16" t="n">
+        <v>1069108</v>
+      </c>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="16" t="inlineStr">
+        <is>
+          <t>품4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제어 케이블</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="14" t="inlineStr"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I27" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" s="6" t="n"/>
+      <c r="K27" s="16" t="n">
+        <v>414944</v>
+      </c>
+      <c r="L27" s="6" t="n"/>
+      <c r="M27" s="16" t="n">
+        <v>2074720</v>
+      </c>
+      <c r="N27" s="6" t="n"/>
+      <c r="O27" s="16" t="inlineStr">
+        <is>
+          <t>품5</t>
+        </is>
+      </c>
+    </row>
     <row r="30">
-      <c r="C30" s="10" t="inlineStr">
+      <c r="C30" s="12" t="inlineStr">
         <is>
           <t>나. 간접노무비</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n"/>
-      <c r="M30" s="11" t="inlineStr">
-        <is>
-          <t>337,498</t>
-        </is>
-      </c>
-      <c r="N30" s="4" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="M30" s="13" t="n">
+        <v>2489619.6</v>
+      </c>
+      <c r="N30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="12" t="inlineStr">
+      <c r="C31" s="14" t="inlineStr">
         <is>
           <t>직접노무비 * 13.0%</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n"/>
-      <c r="I31" s="14" t="inlineStr">
+      <c r="D31" s="6" t="n"/>
+      <c r="I31" s="16" t="inlineStr">
         <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="J31" s="4" t="n"/>
-      <c r="K31" s="14" t="inlineStr">
-        <is>
-          <t>2,596,142</t>
-        </is>
-      </c>
-      <c r="L31" s="4" t="n"/>
-      <c r="M31" s="14" t="inlineStr">
-        <is>
-          <t>337,498</t>
-        </is>
-      </c>
-      <c r="N31" s="4" t="n"/>
+      <c r="J31" s="6" t="n"/>
+      <c r="K31" s="16" t="n">
+        <v>5633536.4</v>
+      </c>
+      <c r="L31" s="6" t="n"/>
+      <c r="M31" s="16" t="n">
+        <v>2489619.6</v>
+      </c>
+      <c r="N31" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="inlineStr">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>3. 경비</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="4" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="M33" s="11" t="inlineStr">
-        <is>
-          <t>379,492</t>
-        </is>
-      </c>
-      <c r="N33" s="4" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="M33" s="13" t="n">
+        <v>91453613</v>
+      </c>
+      <c r="N33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="10" t="inlineStr">
+      <c r="C34" s="12" t="inlineStr">
         <is>
           <t>가. 도급분</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n"/>
-      <c r="M34" s="11" t="inlineStr">
-        <is>
-          <t>379,492</t>
-        </is>
-      </c>
-      <c r="N34" s="4" t="n"/>
+      <c r="D34" s="6" t="n"/>
+      <c r="M34" s="13" t="n">
+        <v>91453613</v>
+      </c>
+      <c r="N34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="C35" s="10" t="inlineStr">
+      <c r="C35" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 공구손료</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n"/>
-      <c r="E35" s="15" t="inlineStr">
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="17" t="inlineStr">
         <is>
           <t>직접노무비(노임할증,품할증,토목,건축,기계,시험 공량분 제외) x 3%</t>
         </is>
       </c>
-      <c r="F35" s="4" t="n"/>
-      <c r="G35" s="4" t="n"/>
-      <c r="H35" s="4" t="n"/>
-      <c r="I35" s="4" t="n"/>
-      <c r="J35" s="4" t="n"/>
-      <c r="K35" s="4" t="n"/>
-      <c r="L35" s="4" t="n"/>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="6" t="n"/>
+      <c r="I35" s="6" t="n"/>
+      <c r="J35" s="6" t="n"/>
+      <c r="K35" s="6" t="n"/>
+      <c r="L35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="I36" s="14" t="inlineStr">
-        <is>
-          <t>77,884</t>
-        </is>
-      </c>
-      <c r="J36" s="4" t="n"/>
-      <c r="K36" s="4" t="n"/>
-      <c r="L36" s="4" t="n"/>
+      <c r="I36" s="16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="J36" s="6" t="n"/>
+      <c r="K36" s="16" t="n">
+        <v>5633536.4</v>
+      </c>
+      <c r="L36" s="6" t="n"/>
+      <c r="M36" s="16" t="n">
+        <v>169006</v>
+      </c>
+      <c r="N36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="C37" s="10" t="inlineStr">
+      <c r="C37" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 산재보험료</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n"/>
-      <c r="E37" s="15" t="inlineStr">
-        <is>
-          <t>노무비 * 3.763%</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="n"/>
-      <c r="G37" s="4" t="n"/>
-      <c r="H37" s="4" t="n"/>
-      <c r="I37" s="4" t="n"/>
-      <c r="J37" s="4" t="n"/>
-      <c r="K37" s="4" t="n"/>
-      <c r="L37" s="4" t="n"/>
+      <c r="D37" s="6" t="n"/>
+      <c r="E37" s="17" t="inlineStr">
+        <is>
+          <t>노무비 * 370.0%</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="H37" s="6" t="n"/>
+      <c r="I37" s="6" t="n"/>
+      <c r="J37" s="6" t="n"/>
+      <c r="K37" s="6" t="n"/>
+      <c r="L37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="I38" s="14" t="inlineStr">
-        <is>
-          <t>110,393</t>
-        </is>
-      </c>
-      <c r="J38" s="4" t="n"/>
-      <c r="K38" s="4" t="n"/>
-      <c r="L38" s="4" t="n"/>
+      <c r="I38" s="16" t="n">
+        <v>30055677</v>
+      </c>
+      <c r="J38" s="6" t="n"/>
+      <c r="K38" s="6" t="n"/>
+      <c r="L38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="C39" s="10" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 고용보험료</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n"/>
-      <c r="E39" s="15" t="inlineStr">
-        <is>
-          <t>노무비 * 1.01%</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="n"/>
-      <c r="G39" s="4" t="n"/>
-      <c r="H39" s="4" t="n"/>
-      <c r="I39" s="4" t="n"/>
-      <c r="J39" s="4" t="n"/>
-      <c r="K39" s="4" t="n"/>
-      <c r="L39" s="4" t="n"/>
+      <c r="D39" s="6" t="n"/>
+      <c r="E39" s="17" t="inlineStr">
+        <is>
+          <t>노무비 * 157.0%</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="H39" s="6" t="n"/>
+      <c r="I39" s="6" t="n"/>
+      <c r="J39" s="6" t="n"/>
+      <c r="K39" s="6" t="n"/>
+      <c r="L39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="I40" s="14" t="inlineStr">
-        <is>
-          <t>29,630</t>
-        </is>
-      </c>
-      <c r="J40" s="4" t="n"/>
-      <c r="K40" s="4" t="n"/>
-      <c r="L40" s="4" t="n"/>
+      <c r="I40" s="16" t="n">
+        <v>12753355</v>
+      </c>
+      <c r="J40" s="6" t="n"/>
+      <c r="K40" s="6" t="n"/>
+      <c r="L40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="C41" s="10" t="inlineStr">
+      <c r="C41" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 기타경비</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n"/>
-      <c r="E41" s="15" t="inlineStr">
-        <is>
-          <t>(도급재료비 + 노무비) * 4.6%</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="n"/>
-      <c r="G41" s="4" t="n"/>
-      <c r="H41" s="4" t="n"/>
-      <c r="I41" s="4" t="n"/>
-      <c r="J41" s="4" t="n"/>
-      <c r="K41" s="4" t="n"/>
-      <c r="L41" s="4" t="n"/>
+      <c r="D41" s="6" t="n"/>
+      <c r="E41" s="17" t="inlineStr">
+        <is>
+          <t>(도급재료비 + 노무비) * 580.0%</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="n"/>
+      <c r="G41" s="6" t="n"/>
+      <c r="H41" s="6" t="n"/>
+      <c r="I41" s="6" t="n"/>
+      <c r="J41" s="6" t="n"/>
+      <c r="K41" s="6" t="n"/>
+      <c r="L41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="I42" s="14" t="inlineStr">
-        <is>
-          <t>161,585</t>
-        </is>
-      </c>
-      <c r="J42" s="4" t="n"/>
-      <c r="K42" s="4" t="n"/>
-      <c r="L42" s="4" t="n"/>
+      <c r="I42" s="16" t="n">
+        <v>48475575</v>
+      </c>
+      <c r="J42" s="6" t="n"/>
+      <c r="K42" s="6" t="n"/>
+      <c r="L42" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>4. 일반관리비</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n"/>
-      <c r="C44" s="4" t="n"/>
-      <c r="D44" s="4" t="n"/>
-      <c r="E44" s="10" t="inlineStr">
-        <is>
-          <t>(도급재료비 + 노무비 + 도급경비) * 6%</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="n"/>
-      <c r="G44" s="4" t="n"/>
-      <c r="H44" s="4" t="n"/>
-      <c r="I44" s="4" t="n"/>
-      <c r="J44" s="4" t="n"/>
-      <c r="K44" s="4" t="n"/>
-      <c r="L44" s="4" t="n"/>
-      <c r="M44" s="11" t="inlineStr">
-        <is>
-          <t>233,533</t>
-        </is>
-      </c>
-      <c r="N44" s="4" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="6" t="n"/>
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>(도급재료비 + 노무비 + 도급경비) * 6.0%</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
+      <c r="J44" s="6" t="n"/>
+      <c r="K44" s="6" t="n"/>
+      <c r="L44" s="6" t="n"/>
+      <c r="M44" s="13" t="n">
+        <v>598868824</v>
+      </c>
+      <c r="N44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="I45" s="14" t="inlineStr">
-        <is>
-          <t>233,533</t>
-        </is>
-      </c>
-      <c r="J45" s="4" t="n"/>
-      <c r="K45" s="4" t="n"/>
-      <c r="L45" s="4" t="n"/>
+      <c r="I45" s="16" t="n">
+        <v>598868824</v>
+      </c>
+      <c r="J45" s="6" t="n"/>
+      <c r="K45" s="6" t="n"/>
+      <c r="L45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="inlineStr">
+      <c r="A46" s="12" t="inlineStr">
         <is>
           <t>5. 이윤</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n"/>
-      <c r="C46" s="4" t="n"/>
-      <c r="D46" s="4" t="n"/>
-      <c r="E46" s="10" t="inlineStr">
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
+      <c r="D46" s="6" t="n"/>
+      <c r="E46" s="12" t="inlineStr">
         <is>
           <t>(노무비 + 도급경비 + 일반관리비) * 15%</t>
         </is>
       </c>
-      <c r="F46" s="4" t="n"/>
-      <c r="G46" s="4" t="n"/>
-      <c r="H46" s="4" t="n"/>
-      <c r="I46" s="4" t="n"/>
-      <c r="J46" s="4" t="n"/>
-      <c r="K46" s="4" t="n"/>
-      <c r="L46" s="4" t="n"/>
-      <c r="M46" s="11" t="inlineStr">
-        <is>
-          <t>532,000</t>
-        </is>
-      </c>
-      <c r="N46" s="4" t="n"/>
-      <c r="O46" s="16" t="inlineStr">
+      <c r="F46" s="6" t="n"/>
+      <c r="G46" s="6" t="n"/>
+      <c r="H46" s="6" t="n"/>
+      <c r="I46" s="6" t="n"/>
+      <c r="J46" s="6" t="n"/>
+      <c r="K46" s="6" t="n"/>
+      <c r="L46" s="6" t="n"/>
+      <c r="M46" s="13" t="n">
+        <v>104766839</v>
+      </c>
+      <c r="N46" s="6" t="n"/>
+      <c r="O46" s="18" t="inlineStr">
         <is>
           <t>일반공사</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="I47" s="14" t="inlineStr">
-        <is>
-          <t>532,000</t>
-        </is>
-      </c>
-      <c r="J47" s="4" t="n"/>
-      <c r="K47" s="4" t="n"/>
-      <c r="L47" s="4" t="n"/>
+      <c r="I47" s="16" t="n">
+        <v>104766839</v>
+      </c>
+      <c r="J47" s="6" t="n"/>
+      <c r="K47" s="6" t="n"/>
+      <c r="L47" s="6" t="n"/>
     </row>
     <row r="49">
-      <c r="E49" s="10" t="inlineStr">
+      <c r="E49" s="12" t="inlineStr">
         <is>
           <t>(노무비 + 도급경비 + 일반관리비) * 10%</t>
         </is>
       </c>
-      <c r="F49" s="4" t="n"/>
-      <c r="G49" s="4" t="n"/>
-      <c r="H49" s="4" t="n"/>
-      <c r="I49" s="4" t="n"/>
-      <c r="J49" s="4" t="n"/>
-      <c r="K49" s="4" t="n"/>
-      <c r="L49" s="4" t="n"/>
-      <c r="M49" s="11" t="inlineStr">
-        <is>
-          <t>354,667</t>
-        </is>
-      </c>
-      <c r="N49" s="4" t="n"/>
-      <c r="O49" s="16" t="inlineStr">
+      <c r="F49" s="6" t="n"/>
+      <c r="G49" s="6" t="n"/>
+      <c r="H49" s="6" t="n"/>
+      <c r="I49" s="6" t="n"/>
+      <c r="J49" s="6" t="n"/>
+      <c r="K49" s="6" t="n"/>
+      <c r="L49" s="6" t="n"/>
+      <c r="M49" s="13" t="n">
+        <v>69844559</v>
+      </c>
+      <c r="N49" s="6" t="n"/>
+      <c r="O49" s="18" t="inlineStr">
         <is>
           <t>간이공사</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="I50" s="14" t="inlineStr">
-        <is>
-          <t>354,667</t>
-        </is>
-      </c>
-      <c r="J50" s="4" t="n"/>
-      <c r="K50" s="4" t="n"/>
-      <c r="L50" s="4" t="n"/>
+      <c r="I50" s="16" t="n">
+        <v>69844559</v>
+      </c>
+      <c r="J50" s="6" t="n"/>
+      <c r="K50" s="6" t="n"/>
+      <c r="L50" s="6" t="n"/>
     </row>
     <row r="51">
-      <c r="I51" s="17" t="inlineStr">
-        <is>
-          <t>(₩745)</t>
-        </is>
-      </c>
-      <c r="J51" s="4" t="n"/>
-      <c r="K51" s="4" t="n"/>
-      <c r="L51" s="4" t="n"/>
-      <c r="O51" s="12" t="inlineStr">
+      <c r="I51" s="19" t="inlineStr">
+        <is>
+          <t>(₩133.7300000190735)</t>
+        </is>
+      </c>
+      <c r="J51" s="6" t="n"/>
+      <c r="K51" s="6" t="n"/>
+      <c r="L51" s="6" t="n"/>
+      <c r="O51" s="14" t="inlineStr">
         <is>
           <t>일반공사</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="I52" s="17" t="inlineStr">
-        <is>
-          <t>(₩412)</t>
-        </is>
-      </c>
-      <c r="J52" s="4" t="n"/>
-      <c r="K52" s="4" t="n"/>
-      <c r="L52" s="4" t="n"/>
-      <c r="O52" s="18" t="inlineStr">
+      <c r="I52" s="19" t="inlineStr">
+        <is>
+          <t>(₩853.7300000190735)</t>
+        </is>
+      </c>
+      <c r="J52" s="6" t="n"/>
+      <c r="K52" s="6" t="n"/>
+      <c r="L52" s="6" t="n"/>
+      <c r="O52" s="20" t="inlineStr">
         <is>
           <t>간이공사</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="E53" s="19" t="inlineStr">
+      <c r="E53" s="21" t="inlineStr">
         <is>
           <t>추 정 금 액</t>
         </is>
       </c>
-      <c r="F53" s="4" t="n"/>
-      <c r="G53" s="4" t="n"/>
-      <c r="H53" s="4" t="n"/>
-      <c r="I53" s="4" t="n"/>
-      <c r="J53" s="4" t="n"/>
-      <c r="K53" s="20" t="inlineStr">
-        <is>
-          <t>₩4,928,000</t>
-        </is>
-      </c>
-      <c r="L53" s="4" t="n"/>
-      <c r="M53" s="4" t="n"/>
-      <c r="N53" s="4" t="n"/>
+      <c r="F53" s="6" t="n"/>
+      <c r="G53" s="6" t="n"/>
+      <c r="H53" s="6" t="n"/>
+      <c r="I53" s="6" t="n"/>
+      <c r="J53" s="6" t="n"/>
+      <c r="K53" s="22" t="n">
+        <v>845376400</v>
+      </c>
+      <c r="L53" s="6" t="n"/>
+      <c r="M53" s="6" t="n"/>
+      <c r="N53" s="6" t="n"/>
     </row>
     <row r="54">
-      <c r="E54" s="19" t="inlineStr">
+      <c r="E54" s="21" t="inlineStr">
         <is>
           <t>도 급 분(일반공사 - 이윤 15%)</t>
         </is>
       </c>
-      <c r="F54" s="4" t="n"/>
-      <c r="G54" s="4" t="n"/>
-      <c r="H54" s="4" t="n"/>
-      <c r="I54" s="4" t="n"/>
-      <c r="J54" s="4" t="n"/>
-      <c r="K54" s="20" t="inlineStr">
-        <is>
-          <t>₩4,658,000</t>
-        </is>
-      </c>
-      <c r="L54" s="4" t="n"/>
-      <c r="M54" s="4" t="n"/>
-      <c r="N54" s="4" t="n"/>
+      <c r="F54" s="6" t="n"/>
+      <c r="G54" s="6" t="n"/>
+      <c r="H54" s="6" t="n"/>
+      <c r="I54" s="6" t="n"/>
+      <c r="J54" s="6" t="n"/>
+      <c r="K54" s="22" t="n">
+        <v>803447000</v>
+      </c>
+      <c r="L54" s="6" t="n"/>
+      <c r="M54" s="6" t="n"/>
+      <c r="N54" s="6" t="n"/>
     </row>
     <row r="55">
-      <c r="E55" s="21" t="inlineStr">
+      <c r="E55" s="23" t="inlineStr">
         <is>
           <t>도 급 분(간이공사 - 이윤 10%)</t>
         </is>
       </c>
-      <c r="F55" s="4" t="n"/>
-      <c r="G55" s="4" t="n"/>
-      <c r="H55" s="4" t="n"/>
-      <c r="I55" s="4" t="n"/>
-      <c r="J55" s="4" t="n"/>
-      <c r="K55" s="22" t="inlineStr">
-        <is>
-          <t>₩4,658,000</t>
-        </is>
-      </c>
-      <c r="L55" s="4" t="n"/>
-      <c r="M55" s="4" t="n"/>
-      <c r="N55" s="4" t="n"/>
+      <c r="F55" s="6" t="n"/>
+      <c r="G55" s="6" t="n"/>
+      <c r="H55" s="6" t="n"/>
+      <c r="I55" s="6" t="n"/>
+      <c r="J55" s="6" t="n"/>
+      <c r="K55" s="24" t="n">
+        <v>768524000</v>
+      </c>
+      <c r="L55" s="6" t="n"/>
+      <c r="M55" s="6" t="n"/>
+      <c r="N55" s="6" t="n"/>
     </row>
     <row r="56">
-      <c r="E56" s="19" t="inlineStr">
+      <c r="E56" s="21" t="inlineStr">
         <is>
           <t>도급부가세</t>
         </is>
       </c>
-      <c r="F56" s="4" t="n"/>
-      <c r="G56" s="4" t="n"/>
-      <c r="H56" s="4" t="n"/>
-      <c r="I56" s="4" t="n"/>
-      <c r="J56" s="4" t="n"/>
-      <c r="K56" s="20" t="inlineStr">
-        <is>
-          <t>₩448,000</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="n"/>
-      <c r="M56" s="4" t="n"/>
-      <c r="N56" s="4" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+      <c r="J56" s="6" t="n"/>
+      <c r="K56" s="22" t="n">
+        <v>76852400</v>
+      </c>
+      <c r="L56" s="6" t="n"/>
+      <c r="M56" s="6" t="n"/>
+      <c r="N56" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="214">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="E35:L35"/>
     <mergeCell ref="E44:L44"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="S7:T7"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="K50:L50"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O24"/>
+    <mergeCell ref="O19"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M25:N25"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="I50:K50"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="E46:L46"/>
+    <mergeCell ref="M36:N36"/>
     <mergeCell ref="O49"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="P4:R4"/>
-    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="I45:K45"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H16"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="I47:K47"/>
+    <mergeCell ref="H27"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="O52"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="O14"/>
+    <mergeCell ref="O23"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="W4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="O15"/>
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O18"/>
     <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="E49:L49"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
     <mergeCell ref="A46:D46"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="M24:N24"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="K56:N56"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="O25"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="E37:L37"/>
     <mergeCell ref="P6:R6"/>
+    <mergeCell ref="O27"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O51"/>
+    <mergeCell ref="O17"/>
     <mergeCell ref="O11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="M49:N49"/>
     <mergeCell ref="K45:L45"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="H18"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="K11:L11"/>
@@ -1705,6 +2050,7 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="I52:K52"/>
+    <mergeCell ref="H26"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="C31:D31"/>
@@ -1713,40 +2059,60 @@
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="K54:N54"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="A10:O10"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H25"/>
     <mergeCell ref="K55:N55"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="E53:J53"/>
     <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26"/>
     <mergeCell ref="E8:O9"/>
     <mergeCell ref="E55:J55"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="O16"/>
     <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="P8:W9"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="W11"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="P10:W10"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="E39:L39"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="H14"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H23"/>
     <mergeCell ref="I42:K42"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E54:J54"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E25:G25"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="C11:D11"/>
@@ -1765,6 +2131,7 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="H11"/>
+    <mergeCell ref="H17"/>
     <mergeCell ref="U5:V7"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="O46"/>
